--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,55 +52,52 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>apart</t>
   </si>
   <si>
     <t>paint</t>
@@ -109,18 +106,18 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>ok</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -133,45 +130,36 @@
     <t>would</t>
   </si>
   <si>
-    <t>back</t>
+    <t>money</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -214,31 +202,28 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -614,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -733,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7150537634408602</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.734375</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.5738880918220947</v>
+        <v>0.5523672883787661</v>
       </c>
       <c r="L9">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M9">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6571428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.4937759336099585</v>
+        <v>0.4730290456431535</v>
       </c>
       <c r="L11">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M11">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6456310679611651</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C12">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.4540983606557377</v>
+        <v>0.4631147540983607</v>
       </c>
       <c r="L12">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M12">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,37 +1168,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.3608562691131498</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L13">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6148648648648649</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.3166666666666667</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5636363636363636</v>
+        <v>0.5625</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.3132530120481928</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5476190476190477</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.3121693121693122</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="L16">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5416666666666666</v>
+        <v>0.4811594202898551</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K17">
         <v>0.2109375</v>
@@ -1433,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.1984126984126984</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4956521739130435</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.1881720430107527</v>
+        <v>0.184</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.184</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4216867469879518</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.1818181818181818</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.176706827309237</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>205</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3937007874015748</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.1553994732221247</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L23">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="M23">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="N23">
         <v>0.99</v>
@@ -1725,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>962</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3809523809523809</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,31 +1736,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.07147498375568551</v>
+        <v>0.06684491978609626</v>
       </c>
       <c r="L24">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1429</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3696682464454976</v>
+        <v>0.3515625</v>
       </c>
       <c r="C25">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.06684491978609626</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1818,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3684210526315789</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,28 +1839,28 @@
         <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.06128133704735376</v>
+        <v>0.0426098535286285</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>337</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1868,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.303370786516854</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,31 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27">
-        <v>0.03604806408544727</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
-      <c r="N27">
-        <v>0.9</v>
-      </c>
-      <c r="O27">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>722</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1894,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.296875</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1959,13 +1920,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2920792079207921</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1977,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1985,13 +1946,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2525773195876289</v>
+        <v>0.175</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2003,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2011,13 +1972,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.18</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2029,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2037,13 +1998,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.177536231884058</v>
+        <v>0.1587537091988131</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2055,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>227</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2063,13 +2024,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1691394658753709</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C33">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2081,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>560</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2089,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1642857142857143</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2107,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2115,25 +2076,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1556195965417868</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>293</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2141,13 +2102,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1424050632911392</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2159,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>271</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2167,25 +2128,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1176470588235294</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>165</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2193,13 +2154,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1121495327102804</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2211,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2219,13 +2180,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.105726872246696</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2237,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>406</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2245,25 +2206,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1012145748987854</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>222</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2271,13 +2232,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09177215189873418</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2289,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>287</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2297,25 +2258,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08646616541353383</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>243</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2323,25 +2284,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.06478873239436619</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>332</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2349,129 +2310,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06446280991735537</v>
+        <v>0.03548795944233207</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E44">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F44">
-        <v>0.9299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0623608017817372</v>
-      </c>
-      <c r="C45">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>28</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.06027397260273973</v>
-      </c>
-      <c r="C46">
-        <v>22</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.04447852760736196</v>
-      </c>
-      <c r="C47">
-        <v>29</v>
-      </c>
-      <c r="D47">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>0.09</v>
-      </c>
-      <c r="F47">
-        <v>0.91</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.03929024081115336</v>
-      </c>
-      <c r="C48">
-        <v>31</v>
-      </c>
-      <c r="D48">
-        <v>36</v>
-      </c>
-      <c r="E48">
-        <v>0.14</v>
-      </c>
-      <c r="F48">
-        <v>0.86</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
